--- a/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_CO_REC380.xlsx
+++ b/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_CO_REC380.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_01_CO\MOTORES Y SOLICITUD GRAFICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="7080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="191">
   <si>
     <t>Fecha:</t>
   </si>
@@ -1762,143 +1762,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>772582</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1785082</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>847000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="9 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12022665" y="2275417"/>
-          <a:ext cx="1012500" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1774499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>762334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="10 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12012082" y="3111501"/>
-          <a:ext cx="1012500" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>719666</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1771614</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>846999</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="11 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11969749" y="4053416"/>
-          <a:ext cx="1051948" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2613,8 +2476,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2918,23 +2781,23 @@
         <v>189</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="13" t="e">
+        <v>151</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="13" t="e">
+        <v>LE_08_01_REC380_IMG01n.jpg</v>
+      </c>
+      <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="13" t="e">
+        <v>240 x 375 px</v>
+      </c>
+      <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="13" t="e">
+        <v>LE_08_01_REC380_IMG01a.jpg</v>
+      </c>
+      <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="64"/>
@@ -2949,7 +2812,7 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="62">
-        <v>125628617</v>
+        <v>185893610</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2959,23 +2822,23 @@
         <v>189</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="13" t="e">
+        <v>152</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="13" t="e">
+        <v>LE_08_01_REC380_IMG02n.jpg</v>
+      </c>
+      <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="13" t="e">
+        <v>240 x 185 px</v>
+      </c>
+      <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="13" t="e">
+        <v>LE_08_01_REC380_IMG02a.jpg</v>
+      </c>
+      <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
@@ -2990,7 +2853,7 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62">
-        <v>19419253</v>
+        <v>125628617</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3000,23 +2863,23 @@
         <v>189</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="13" t="e">
+        <v>151</v>
+      </c>
+      <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="13" t="e">
+        <v>LE_08_01_REC380_IMG03n.jpg</v>
+      </c>
+      <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="13" t="e">
+        <v>240 x 375 px</v>
+      </c>
+      <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="13" t="e">
+        <v>LE_08_01_REC380_IMG03a.jpg</v>
+      </c>
+      <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
@@ -3028,30 +2891,36 @@
     <row r="13" spans="1:16" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62">
+        <v>125628617</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>152</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_01_REC380_IMG04n.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>240 x 185 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_01_REC380_IMG04a.jpg</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
@@ -3063,30 +2932,36 @@
     <row r="14" spans="1:16" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62">
+        <v>19419253</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>151</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_01_REC380_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>240 x 375 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_01_REC380_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
@@ -3098,30 +2973,36 @@
     <row r="15" spans="1:16" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62">
+        <v>19419253</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>152</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_01_REC380_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>240 x 185 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_01_REC380_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="J15" s="66"/>
       <c r="K15" s="64"/>
@@ -6095,7 +5976,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
